--- a/ConceptMap-R5-Transport-elements-for-R4.xlsx
+++ b/ConceptMap-R5-Transport-elements-for-R4.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="163">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:34.8362084-06:00</t>
+    <t>2026-02-09T22:05:44.3378116-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -390,9 +390,6 @@
     <t>restriction</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:restriction</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.restriction</t>
   </si>
   <si>
@@ -402,9 +399,6 @@
     <t>repetitions</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:restriction:repetitions</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.restriction:repetitions</t>
   </si>
   <si>
@@ -414,9 +408,6 @@
     <t>period</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:restriction:period</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.restriction:period</t>
   </si>
   <si>
@@ -426,9 +417,6 @@
     <t>recipient</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:restriction:recipient</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.restriction:recipient</t>
   </si>
   <si>
@@ -438,9 +426,6 @@
     <t>input</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:input</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.input</t>
   </si>
   <si>
@@ -450,9 +435,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:input:type</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.input:type</t>
   </si>
   <si>
@@ -462,9 +444,6 @@
     <t>value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:input:value</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.input:value</t>
   </si>
   <si>
@@ -474,25 +453,16 @@
     <t>output</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:output</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.output</t>
   </si>
   <si>
     <t>Transport.output.type</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:output:type</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.output:type</t>
   </si>
   <si>
     <t>Transport.output.value[x]</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:output:value</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.output:value</t>
@@ -788,7 +758,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1244,302 +1214,172 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="B42" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="E47" s="2"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="E57" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ConceptMap-R5-Transport-elements-for-R4.xlsx
+++ b/ConceptMap-R5-Transport-elements-for-R4.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:44.3378116-06:00</t>
+    <t>2026-02-17T14:42:27.6452045-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -174,7 +174,7 @@
     <t>instantiatesCanonical</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:instantiatesCanonical</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.instantiatesCanonical</t>
   </si>
   <si>
     <t>Transport.instantiatesUri</t>
@@ -183,7 +183,7 @@
     <t>instantiatesUri</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:instantiatesUri</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.instantiatesUri</t>
   </si>
   <si>
     <t>Transport.basedOn</t>
@@ -192,7 +192,7 @@
     <t>basedOn</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:basedOn</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.basedOn</t>
   </si>
   <si>
     <t>Transport.groupIdentifier</t>
@@ -201,7 +201,7 @@
     <t>groupIdentifier</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:groupIdentifier</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.groupIdentifier</t>
   </si>
   <si>
     <t>Transport.partOf</t>
@@ -210,7 +210,7 @@
     <t>partOf</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:partOf</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.partOf</t>
   </si>
   <si>
     <t>Transport.status</t>
@@ -219,7 +219,7 @@
     <t>status</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:status</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.status</t>
   </si>
   <si>
     <t>Transport.statusReason</t>
@@ -228,7 +228,7 @@
     <t>statusReason</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:statusReason</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.statusReason</t>
   </si>
   <si>
     <t>Transport.intent</t>
@@ -237,7 +237,7 @@
     <t>intent</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:intent</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.intent</t>
   </si>
   <si>
     <t>Transport.priority</t>
@@ -246,7 +246,7 @@
     <t>priority</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:priority</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.priority</t>
   </si>
   <si>
     <t>Transport.code</t>
@@ -255,7 +255,7 @@
     <t>code</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:code</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.code</t>
   </si>
   <si>
     <t>Transport.description</t>
@@ -264,7 +264,7 @@
     <t>description</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:description</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.description</t>
   </si>
   <si>
     <t>Transport.focus</t>
@@ -273,7 +273,7 @@
     <t>focus</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:focus</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.focus</t>
   </si>
   <si>
     <t>Transport.for</t>
@@ -282,7 +282,7 @@
     <t>for</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:for</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.for</t>
   </si>
   <si>
     <t>Transport.encounter</t>
@@ -291,7 +291,7 @@
     <t>encounter</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:encounter</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.encounter</t>
   </si>
   <si>
     <t>Transport.completionTime</t>
@@ -300,7 +300,7 @@
     <t>completionTime</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:completionTime</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.completionTime</t>
   </si>
   <si>
     <t>Transport.authoredOn</t>
@@ -309,7 +309,7 @@
     <t>authoredOn</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:authoredOn</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.authoredOn</t>
   </si>
   <si>
     <t>Transport.lastModified</t>
@@ -318,7 +318,7 @@
     <t>lastModified</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:lastModified</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.lastModified</t>
   </si>
   <si>
     <t>Transport.requester</t>
@@ -327,7 +327,7 @@
     <t>requester</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:requester</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.requester</t>
   </si>
   <si>
     <t>Transport.performerType</t>
@@ -336,7 +336,7 @@
     <t>performerType</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:performerType</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.performerType</t>
   </si>
   <si>
     <t>Transport.owner</t>
@@ -345,7 +345,7 @@
     <t>owner</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:owner</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.owner</t>
   </si>
   <si>
     <t>Transport.location</t>
@@ -354,7 +354,7 @@
     <t>location</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:location</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.location</t>
   </si>
   <si>
     <t>Transport.insurance</t>
@@ -363,7 +363,7 @@
     <t>insurance</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:insurance</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.insurance</t>
   </si>
   <si>
     <t>Transport.note</t>
@@ -372,7 +372,7 @@
     <t>note</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:note</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.note</t>
   </si>
   <si>
     <t>Transport.relevantHistory</t>
@@ -381,7 +381,7 @@
     <t>relevantHistory</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:relevantHistory</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.relevantHistory</t>
   </si>
   <si>
     <t>Transport.restriction</t>
@@ -399,7 +399,7 @@
     <t>repetitions</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.restriction:repetitions</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.restriction:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.restriction.repetitions</t>
   </si>
   <si>
     <t>Transport.restriction.period</t>
@@ -408,7 +408,7 @@
     <t>period</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.restriction:period</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.restriction:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.restriction.period</t>
   </si>
   <si>
     <t>Transport.restriction.recipient</t>
@@ -417,7 +417,7 @@
     <t>recipient</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.restriction:recipient</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.restriction:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.restriction.recipient</t>
   </si>
   <si>
     <t>Transport.input</t>
@@ -435,7 +435,7 @@
     <t>type</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.input:type</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.input:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.input.type</t>
   </si>
   <si>
     <t>Transport.input.value[x]</t>
@@ -444,7 +444,7 @@
     <t>value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.input:value</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.input:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.input.value</t>
   </si>
   <si>
     <t>Transport.output</t>
@@ -459,13 +459,13 @@
     <t>Transport.output.type</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.output:type</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.output:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.output.type</t>
   </si>
   <si>
     <t>Transport.output.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.output:value</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.output:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.output.value</t>
   </si>
   <si>
     <t>Transport.requestedLocation</t>
@@ -474,7 +474,7 @@
     <t>requestedLocation</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:requestedLocation</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.requestedLocation</t>
   </si>
   <si>
     <t>Transport.currentLocation</t>
@@ -483,7 +483,7 @@
     <t>currentLocation</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:currentLocation</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.currentLocation</t>
   </si>
   <si>
     <t>Transport.reason</t>
@@ -492,7 +492,7 @@
     <t>reason</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:reason</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.reason</t>
   </si>
   <si>
     <t>Transport.history</t>
@@ -501,7 +501,7 @@
     <t>history</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:history</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport:http://hl7.org/fhir/5.0/StructureDefinition/extension-Transport.history</t>
   </si>
 </sst>
 </file>
